--- a/BDD/Listado EPAAP (1).xlsx
+++ b/BDD/Listado EPAAP (1).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\epapap\BDD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3259,26 +3267,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3289,11 +3298,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -3307,50 +3322,50 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3540,27 +3555,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A229" sqref="A229:A236"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="24.5"/>
-    <col customWidth="1" min="5" max="5" width="27.5"/>
-    <col customWidth="1" min="6" max="6" width="31.0"/>
-    <col customWidth="1" min="7" max="7" width="41.88"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3595,9 +3615,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -3621,18 +3641,18 @@
         <v>17</v>
       </c>
       <c r="I2" s="3">
-        <v>1043.0</v>
+        <v>1043</v>
       </c>
       <c r="J2" s="3">
-        <v>1051.0</v>
+        <v>1051</v>
       </c>
       <c r="K2" s="3">
-        <v>1051.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -3656,18 +3676,18 @@
         <v>23</v>
       </c>
       <c r="I3" s="3">
-        <v>1888.0</v>
+        <v>1888</v>
       </c>
       <c r="J3" s="3">
-        <v>1905.0</v>
+        <v>1905</v>
       </c>
       <c r="K3" s="3">
-        <v>1907.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -3691,18 +3711,18 @@
         <v>29</v>
       </c>
       <c r="I4" s="3">
-        <v>1442.0</v>
+        <v>1442</v>
       </c>
       <c r="J4" s="3">
-        <v>1473.0</v>
+        <v>1473</v>
       </c>
       <c r="K4" s="3">
-        <v>1477.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>30</v>
@@ -3724,18 +3744,18 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="J5" s="3">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="K5" s="3">
-        <v>1743.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>34</v>
@@ -3759,18 +3779,18 @@
         <v>38</v>
       </c>
       <c r="I6" s="3">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="J6" s="3">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="K6" s="3">
-        <v>298.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
@@ -3794,18 +3814,18 @@
         <v>43</v>
       </c>
       <c r="I7" s="3">
-        <v>2360.0</v>
+        <v>2360</v>
       </c>
       <c r="J7" s="3">
-        <v>2681.0</v>
+        <v>2681</v>
       </c>
       <c r="K7" s="3">
-        <v>2693.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>44</v>
@@ -3828,15 +3848,15 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="3">
-        <v>2366.0</v>
+        <v>2366</v>
       </c>
       <c r="K8" s="3">
-        <v>2377.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>47</v>
@@ -3860,18 +3880,18 @@
         <v>51</v>
       </c>
       <c r="I9" s="3">
-        <v>2134.0</v>
+        <v>2134</v>
       </c>
       <c r="J9" s="3">
-        <v>4137.0</v>
+        <v>4137</v>
       </c>
       <c r="K9" s="3">
-        <v>2150.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>52</v>
@@ -3895,18 +3915,18 @@
         <v>55</v>
       </c>
       <c r="I10" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="J10" s="3">
-        <v>2028.0</v>
+        <v>2028</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>57</v>
@@ -3933,9 +3953,9 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -3959,18 +3979,18 @@
         <v>67</v>
       </c>
       <c r="I12" s="3">
-        <v>1033.0</v>
+        <v>1033</v>
       </c>
       <c r="J12" s="3">
-        <v>1048.0</v>
+        <v>1048</v>
       </c>
       <c r="K12" s="3">
-        <v>1053.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>68</v>
@@ -3994,18 +4014,18 @@
         <v>71</v>
       </c>
       <c r="I13" s="3">
-        <v>3939.0</v>
+        <v>3939</v>
       </c>
       <c r="J13" s="3">
-        <v>3964.0</v>
+        <v>3964</v>
       </c>
       <c r="K13" s="3">
-        <v>3966.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>72</v>
@@ -4032,9 +4052,9 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>78</v>
@@ -4056,18 +4076,18 @@
         <v>81</v>
       </c>
       <c r="I15" s="3">
-        <v>6462.0</v>
+        <v>6462</v>
       </c>
       <c r="J15" s="3">
-        <v>5447.0</v>
+        <v>5447</v>
       </c>
       <c r="K15" s="3">
-        <v>5480.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>82</v>
@@ -4091,18 +4111,18 @@
         <v>83</v>
       </c>
       <c r="I16" s="3">
-        <v>7907.0</v>
+        <v>7907</v>
       </c>
       <c r="J16" s="3">
-        <v>7907.0</v>
+        <v>7907</v>
       </c>
       <c r="K16" s="3">
-        <v>7907.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>84</v>
@@ -4126,16 +4146,16 @@
         <v>87</v>
       </c>
       <c r="I17" s="3">
-        <v>1051.0</v>
+        <v>1051</v>
       </c>
       <c r="J17" s="3">
-        <v>1086.0</v>
+        <v>1086</v>
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
@@ -4159,18 +4179,18 @@
         <v>92</v>
       </c>
       <c r="I18" s="3">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="J18" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="K18" s="3">
-        <v>228.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
@@ -4197,9 +4217,9 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>98</v>
@@ -4223,16 +4243,16 @@
         <v>102</v>
       </c>
       <c r="I20" s="3">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="J20" s="3">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>103</v>
@@ -4256,16 +4276,16 @@
         <v>108</v>
       </c>
       <c r="I21" s="3">
-        <v>10467.0</v>
+        <v>10467</v>
       </c>
       <c r="J21" s="3">
-        <v>10669.0</v>
+        <v>10669</v>
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>109</v>
@@ -4289,18 +4309,18 @@
         <v>114</v>
       </c>
       <c r="I22" s="3">
-        <v>4302.0</v>
+        <v>4302</v>
       </c>
       <c r="J22" s="3">
-        <v>4345.0</v>
+        <v>4345</v>
       </c>
       <c r="K22" s="3">
-        <v>4361.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>115</v>
@@ -4324,18 +4344,18 @@
         <v>120</v>
       </c>
       <c r="I23" s="3">
-        <v>1584.0</v>
+        <v>1584</v>
       </c>
       <c r="J23" s="3">
-        <v>1603.0</v>
+        <v>1603</v>
       </c>
       <c r="K23" s="3">
-        <v>1624.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>121</v>
@@ -4359,18 +4379,18 @@
         <v>126</v>
       </c>
       <c r="I24" s="3">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="J24" s="3">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="K24" s="3">
-        <v>432.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>127</v>
@@ -4391,17 +4411,17 @@
         <v>125</v>
       </c>
       <c r="H25" s="4">
-        <v>1.2006973E7</v>
+        <v>12006973</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="3">
-        <v>636.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>130</v>
@@ -4425,18 +4445,18 @@
         <v>136</v>
       </c>
       <c r="I26" s="3">
-        <v>2787.0</v>
+        <v>2787</v>
       </c>
       <c r="J26" s="3">
-        <v>2807.0</v>
+        <v>2807</v>
       </c>
       <c r="K26" s="3">
-        <v>2509.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>137</v>
@@ -4460,18 +4480,18 @@
         <v>141</v>
       </c>
       <c r="I27" s="3">
-        <v>2948.0</v>
+        <v>2948</v>
       </c>
       <c r="J27" s="3">
-        <v>2484.0</v>
+        <v>2484</v>
       </c>
       <c r="K27" s="3">
-        <v>2990.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>142</v>
@@ -4495,18 +4515,18 @@
         <v>147</v>
       </c>
       <c r="I28" s="3">
-        <v>2604.0</v>
+        <v>2604</v>
       </c>
       <c r="J28" s="3">
-        <v>2628.0</v>
+        <v>2628</v>
       </c>
       <c r="K28" s="3">
-        <v>2640.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>148</v>
@@ -4528,18 +4548,18 @@
         <v>150</v>
       </c>
       <c r="I29" s="3">
-        <v>2535.0</v>
+        <v>2535</v>
       </c>
       <c r="J29" s="3">
-        <v>2557.0</v>
+        <v>2557</v>
       </c>
       <c r="K29" s="3">
-        <v>2560.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>151</v>
@@ -4561,18 +4581,18 @@
         <v>154</v>
       </c>
       <c r="I30" s="3">
-        <v>1585.0</v>
+        <v>1585</v>
       </c>
       <c r="J30" s="3">
-        <v>1604.0</v>
+        <v>1604</v>
       </c>
       <c r="K30" s="3">
-        <v>1632.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>155</v>
@@ -4596,16 +4616,16 @@
         <v>158</v>
       </c>
       <c r="I31" s="3">
-        <v>1593.0</v>
+        <v>1593</v>
       </c>
       <c r="J31" s="3">
-        <v>1616.0</v>
+        <v>1616</v>
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>159</v>
@@ -4629,18 +4649,18 @@
         <v>163</v>
       </c>
       <c r="I32" s="3">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="J32" s="3">
-        <v>707.0</v>
+        <v>707</v>
       </c>
       <c r="K32" s="3">
-        <v>725.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>164</v>
@@ -4664,16 +4684,16 @@
         <v>169</v>
       </c>
       <c r="I33" s="3">
-        <v>662.0</v>
+        <v>662</v>
       </c>
       <c r="J33" s="3">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>170</v>
@@ -4697,18 +4717,18 @@
         <v>175</v>
       </c>
       <c r="I34" s="3">
-        <v>1240.0</v>
+        <v>1240</v>
       </c>
       <c r="J34" s="3">
-        <v>1251.0</v>
+        <v>1251</v>
       </c>
       <c r="K34" s="3">
-        <v>1251.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>176</v>
@@ -4732,18 +4752,18 @@
         <v>180</v>
       </c>
       <c r="I35" s="3">
-        <v>2530.0</v>
+        <v>2530</v>
       </c>
       <c r="J35" s="3">
-        <v>2565.0</v>
+        <v>2565</v>
       </c>
       <c r="K35" s="3">
-        <v>2566.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>181</v>
@@ -4767,18 +4787,18 @@
         <v>185</v>
       </c>
       <c r="I36" s="3">
-        <v>1836.0</v>
+        <v>1836</v>
       </c>
       <c r="J36" s="3">
-        <v>1849.0</v>
+        <v>1849</v>
       </c>
       <c r="K36" s="3">
-        <v>1853.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>186</v>
@@ -4802,18 +4822,18 @@
         <v>190</v>
       </c>
       <c r="I37" s="3">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="J37" s="3">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="K37" s="3">
-        <v>646.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>191</v>
@@ -4837,18 +4857,18 @@
         <v>195</v>
       </c>
       <c r="I38" s="3">
-        <v>2229.0</v>
+        <v>2229</v>
       </c>
       <c r="J38" s="3">
-        <v>2245.0</v>
+        <v>2245</v>
       </c>
       <c r="K38" s="3">
-        <v>2261.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>196</v>
@@ -4875,9 +4895,9 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>201</v>
@@ -4904,9 +4924,9 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>207</v>
@@ -4929,9 +4949,9 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>209</v>
@@ -4956,9 +4976,9 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>214</v>
@@ -4983,13 +5003,13 @@
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="3">
-        <v>5317.0</v>
+        <v>5317</v>
       </c>
       <c r="K43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>219</v>
@@ -5011,18 +5031,18 @@
         <v>222</v>
       </c>
       <c r="I44" s="3">
-        <v>3375.0</v>
+        <v>3375</v>
       </c>
       <c r="J44" s="3">
-        <v>3375.0</v>
+        <v>3375</v>
       </c>
       <c r="K44" s="3">
-        <v>3375.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>223</v>
@@ -5046,18 +5066,18 @@
         <v>227</v>
       </c>
       <c r="I45" s="3">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="J45" s="3">
-        <v>1673.0</v>
+        <v>1673</v>
       </c>
       <c r="K45" s="3">
-        <v>1694.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>228</v>
@@ -5081,18 +5101,18 @@
         <v>232</v>
       </c>
       <c r="I46" s="3">
-        <v>1212.0</v>
+        <v>1212</v>
       </c>
       <c r="J46" s="3">
-        <v>1236.0</v>
+        <v>1236</v>
       </c>
       <c r="K46" s="3">
-        <v>1239.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>233</v>
@@ -5116,18 +5136,18 @@
         <v>237</v>
       </c>
       <c r="I47" s="3">
-        <v>767.0</v>
+        <v>767</v>
       </c>
       <c r="J47" s="3">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="K47" s="3">
-        <v>782.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>238</v>
@@ -5151,18 +5171,18 @@
         <v>244</v>
       </c>
       <c r="I48" s="3">
-        <v>4077.0</v>
+        <v>4077</v>
       </c>
       <c r="J48" s="3">
-        <v>4094.0</v>
+        <v>4094</v>
       </c>
       <c r="K48" s="3">
-        <v>4120.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>245</v>
@@ -5184,18 +5204,18 @@
         <v>249</v>
       </c>
       <c r="I49" s="3">
-        <v>6918.0</v>
+        <v>6918</v>
       </c>
       <c r="J49" s="3">
-        <v>6937.0</v>
+        <v>6937</v>
       </c>
       <c r="K49" s="3">
-        <v>6961.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>250</v>
@@ -5222,9 +5242,9 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>256</v>
@@ -5251,9 +5271,9 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>262</v>
@@ -5278,9 +5298,9 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>267</v>
@@ -5304,18 +5324,18 @@
         <v>271</v>
       </c>
       <c r="I53" s="3">
-        <v>2137.0</v>
+        <v>2137</v>
       </c>
       <c r="J53" s="3">
-        <v>2188.0</v>
+        <v>2188</v>
       </c>
       <c r="K53" s="3">
-        <v>2220.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>272</v>
@@ -5339,18 +5359,18 @@
         <v>276</v>
       </c>
       <c r="I54" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="J54" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="K54" s="3">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>277</v>
@@ -5374,16 +5394,16 @@
         <v>282</v>
       </c>
       <c r="I55" s="3">
-        <v>5427.0</v>
+        <v>5427</v>
       </c>
       <c r="J55" s="3">
-        <v>5436.0</v>
+        <v>5436</v>
       </c>
       <c r="K55" s="6"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>283</v>
@@ -5407,18 +5427,18 @@
         <v>287</v>
       </c>
       <c r="I56" s="3">
-        <v>3913.0</v>
+        <v>3913</v>
       </c>
       <c r="J56" s="3">
-        <v>3934.0</v>
+        <v>3934</v>
       </c>
       <c r="K56" s="3">
-        <v>3935.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>288</v>
@@ -5440,18 +5460,18 @@
         <v>291</v>
       </c>
       <c r="I57" s="3">
-        <v>4984.0</v>
+        <v>4984</v>
       </c>
       <c r="J57" s="3">
-        <v>5005.0</v>
+        <v>5005</v>
       </c>
       <c r="K57" s="3">
-        <v>5014.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>292</v>
@@ -5473,18 +5493,18 @@
         <v>295</v>
       </c>
       <c r="I58" s="3">
-        <v>3141.0</v>
+        <v>3141</v>
       </c>
       <c r="J58" s="3">
-        <v>3180.0</v>
+        <v>3180</v>
       </c>
       <c r="K58" s="3">
-        <v>3188.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>296</v>
@@ -5506,18 +5526,18 @@
         <v>299</v>
       </c>
       <c r="I59" s="3">
-        <v>1435.0</v>
+        <v>1435</v>
       </c>
       <c r="J59" s="3">
-        <v>1444.0</v>
+        <v>1444</v>
       </c>
       <c r="K59" s="3">
-        <v>1449.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>300</v>
@@ -5539,18 +5559,18 @@
         <v>301</v>
       </c>
       <c r="I60" s="3">
-        <v>3980.0</v>
+        <v>3980</v>
       </c>
       <c r="J60" s="3">
-        <v>4011.0</v>
+        <v>4011</v>
       </c>
       <c r="K60" s="3">
-        <v>4015.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>302</v>
@@ -5574,18 +5594,18 @@
         <v>306</v>
       </c>
       <c r="I61" s="3">
-        <v>3070.0</v>
+        <v>3070</v>
       </c>
       <c r="J61" s="3">
-        <v>3092.0</v>
+        <v>3092</v>
       </c>
       <c r="K61" s="3">
-        <v>3112.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>307</v>
@@ -5609,18 +5629,18 @@
         <v>312</v>
       </c>
       <c r="I62" s="3">
-        <v>2643.0</v>
+        <v>2643</v>
       </c>
       <c r="J62" s="3">
-        <v>2655.0</v>
+        <v>2655</v>
       </c>
       <c r="K62" s="3">
-        <v>2656.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>313</v>
@@ -5644,18 +5664,18 @@
         <v>317</v>
       </c>
       <c r="I63" s="3">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="J63" s="3">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="K63" s="3">
-        <v>686.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>318</v>
@@ -5679,16 +5699,16 @@
         <v>320</v>
       </c>
       <c r="I64" s="3">
-        <v>3582.0</v>
+        <v>3582</v>
       </c>
       <c r="J64" s="3">
-        <v>3594.0</v>
+        <v>3594</v>
       </c>
       <c r="K64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>321</v>
@@ -5712,18 +5732,18 @@
         <v>325</v>
       </c>
       <c r="I65" s="3">
-        <v>1356.0</v>
+        <v>1356</v>
       </c>
       <c r="J65" s="3">
-        <v>1388.0</v>
+        <v>1388</v>
       </c>
       <c r="K65" s="3">
-        <v>1421.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>326</v>
@@ -5747,18 +5767,18 @@
         <v>330</v>
       </c>
       <c r="I66" s="3">
-        <v>1234.0</v>
+        <v>1234</v>
       </c>
       <c r="J66" s="3">
-        <v>1249.0</v>
+        <v>1249</v>
       </c>
       <c r="K66" s="3">
-        <v>1265.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>331</v>
@@ -5780,18 +5800,18 @@
         <v>335</v>
       </c>
       <c r="I67" s="3">
-        <v>4070.0</v>
+        <v>4070</v>
       </c>
       <c r="J67" s="3">
-        <v>4091.0</v>
+        <v>4091</v>
       </c>
       <c r="K67" s="3">
-        <v>4105.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>336</v>
@@ -5815,18 +5835,18 @@
         <v>340</v>
       </c>
       <c r="I68" s="3">
-        <v>5078.0</v>
+        <v>5078</v>
       </c>
       <c r="J68" s="3">
-        <v>5088.0</v>
+        <v>5088</v>
       </c>
       <c r="K68" s="3">
-        <v>5110.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>341</v>
@@ -5850,18 +5870,18 @@
         <v>345</v>
       </c>
       <c r="I69" s="3">
-        <v>2787.0</v>
+        <v>2787</v>
       </c>
       <c r="J69" s="3">
-        <v>2797.0</v>
+        <v>2797</v>
       </c>
       <c r="K69" s="3">
-        <v>2809.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>346</v>
@@ -5885,18 +5905,18 @@
         <v>349</v>
       </c>
       <c r="I70" s="3">
-        <v>5269.0</v>
+        <v>5269</v>
       </c>
       <c r="J70" s="3">
-        <v>3282.0</v>
+        <v>3282</v>
       </c>
       <c r="K70" s="3">
-        <v>3293.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>350</v>
@@ -5920,18 +5940,18 @@
         <v>354</v>
       </c>
       <c r="I71" s="3">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="J71" s="3">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="K71" s="3">
-        <v>219.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>355</v>
@@ -5955,18 +5975,18 @@
         <v>359</v>
       </c>
       <c r="I72" s="3">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="J72" s="3">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="K72" s="3">
-        <v>593.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>360</v>
@@ -5990,18 +6010,18 @@
         <v>363</v>
       </c>
       <c r="I73" s="3">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="J73" s="3">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="K73" s="3">
-        <v>190.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>364</v>
@@ -6025,18 +6045,18 @@
         <v>368</v>
       </c>
       <c r="I74" s="3">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="J74" s="3">
-        <v>1263.0</v>
+        <v>1263</v>
       </c>
       <c r="K74" s="3">
-        <v>1249.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>369</v>
@@ -6060,18 +6080,18 @@
         <v>374</v>
       </c>
       <c r="I75" s="3">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="J75" s="3">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="K75" s="3">
-        <v>450.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>375</v>
@@ -6095,18 +6115,18 @@
         <v>379</v>
       </c>
       <c r="I76" s="3">
-        <v>7951.0</v>
+        <v>7951</v>
       </c>
       <c r="J76" s="3">
-        <v>7931.0</v>
+        <v>7931</v>
       </c>
       <c r="K76" s="3">
-        <v>7991.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>380</v>
@@ -6128,18 +6148,18 @@
         <v>383</v>
       </c>
       <c r="I77" s="3">
-        <v>4269.0</v>
+        <v>4269</v>
       </c>
       <c r="J77" s="3">
-        <v>4285.0</v>
+        <v>4285</v>
       </c>
       <c r="K77" s="3">
-        <v>4315.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>384</v>
@@ -6161,18 +6181,18 @@
         <v>387</v>
       </c>
       <c r="I78" s="3">
-        <v>5135.0</v>
+        <v>5135</v>
       </c>
       <c r="J78" s="3">
-        <v>5150.0</v>
+        <v>5150</v>
       </c>
       <c r="K78" s="3">
-        <v>5176.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>388</v>
@@ -6196,18 +6216,18 @@
         <v>391</v>
       </c>
       <c r="I79" s="3">
-        <v>3349.0</v>
+        <v>3349</v>
       </c>
       <c r="J79" s="3">
-        <v>3362.0</v>
+        <v>3362</v>
       </c>
       <c r="K79" s="3">
-        <v>3396.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>392</v>
@@ -6234,9 +6254,9 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>397</v>
@@ -6260,18 +6280,18 @@
         <v>398</v>
       </c>
       <c r="I81" s="3">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="J81" s="3">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="K81" s="3">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>399</v>
@@ -6295,18 +6315,18 @@
         <v>403</v>
       </c>
       <c r="I82" s="3">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="J82" s="3">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="K82" s="3">
-        <v>532.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>404</v>
@@ -6332,12 +6352,12 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="3">
-        <v>3220.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>409</v>
@@ -6361,18 +6381,18 @@
         <v>413</v>
       </c>
       <c r="I84" s="3">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="J84" s="3">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="K84" s="3">
-        <v>172.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>414</v>
@@ -6396,18 +6416,18 @@
         <v>419</v>
       </c>
       <c r="I85" s="3">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="J85" s="3">
-        <v>793.0</v>
+        <v>793</v>
       </c>
       <c r="K85" s="3">
-        <v>791.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>420</v>
@@ -6431,18 +6451,18 @@
         <v>423</v>
       </c>
       <c r="I86" s="3">
-        <v>3660.0</v>
+        <v>3660</v>
       </c>
       <c r="J86" s="3">
-        <v>3685.0</v>
+        <v>3685</v>
       </c>
       <c r="K86" s="3">
-        <v>3703.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>424</v>
@@ -6466,18 +6486,18 @@
         <v>428</v>
       </c>
       <c r="I87" s="3">
-        <v>2761.0</v>
+        <v>2761</v>
       </c>
       <c r="J87" s="3">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="K87" s="3">
-        <v>2801.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>429</v>
@@ -6501,18 +6521,18 @@
         <v>374</v>
       </c>
       <c r="I88" s="3">
-        <v>1622.0</v>
+        <v>1622</v>
       </c>
       <c r="J88" s="3">
-        <v>1622.0</v>
+        <v>1622</v>
       </c>
       <c r="K88" s="3">
-        <v>1622.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>433</v>
@@ -6536,18 +6556,18 @@
         <v>437</v>
       </c>
       <c r="I89" s="3">
-        <v>9602.0</v>
+        <v>9602</v>
       </c>
       <c r="J89" s="3">
-        <v>1612.0</v>
+        <v>1612</v>
       </c>
       <c r="K89" s="3">
-        <v>9616.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>9616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>438</v>
@@ -6574,9 +6594,9 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>443</v>
@@ -6601,9 +6621,9 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>447</v>
@@ -6629,12 +6649,12 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="3">
-        <v>2272.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>452</v>
@@ -6656,16 +6676,16 @@
         <v>456</v>
       </c>
       <c r="I93" s="3">
-        <v>5073.0</v>
+        <v>5073</v>
       </c>
       <c r="J93" s="3">
-        <v>5088.0</v>
+        <v>5088</v>
       </c>
       <c r="K93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>457</v>
@@ -6689,18 +6709,18 @@
         <v>461</v>
       </c>
       <c r="I94" s="3">
-        <v>2446.0</v>
+        <v>2446</v>
       </c>
       <c r="J94" s="3">
-        <v>2459.0</v>
+        <v>2459</v>
       </c>
       <c r="K94" s="3">
-        <v>2177.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>462</v>
@@ -6722,18 +6742,18 @@
         <v>466</v>
       </c>
       <c r="I95" s="3">
-        <v>3013.0</v>
+        <v>3013</v>
       </c>
       <c r="J95" s="3">
-        <v>3027.0</v>
+        <v>3027</v>
       </c>
       <c r="K95" s="3">
-        <v>3034.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>467</v>
@@ -6755,18 +6775,18 @@
         <v>470</v>
       </c>
       <c r="I96" s="3">
-        <v>8004.0</v>
+        <v>8004</v>
       </c>
       <c r="J96" s="3">
-        <v>8015.0</v>
+        <v>8015</v>
       </c>
       <c r="K96" s="3">
-        <v>1047.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>471</v>
@@ -6790,12 +6810,12 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="3">
-        <v>8010.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>476</v>
@@ -6819,14 +6839,14 @@
         <v>480</v>
       </c>
       <c r="I98" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>481</v>
@@ -6853,9 +6873,9 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>487</v>
@@ -6879,18 +6899,18 @@
         <v>490</v>
       </c>
       <c r="I100" s="3">
-        <v>2671.0</v>
+        <v>2671</v>
       </c>
       <c r="J100" s="3">
-        <v>2688.0</v>
+        <v>2688</v>
       </c>
       <c r="K100" s="3">
-        <v>2712.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>491</v>
@@ -6914,18 +6934,18 @@
         <v>496</v>
       </c>
       <c r="I101" s="3">
-        <v>3423.0</v>
+        <v>3423</v>
       </c>
       <c r="J101" s="3">
-        <v>3444.0</v>
+        <v>3444</v>
       </c>
       <c r="K101" s="3">
-        <v>3478.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>497</v>
@@ -6949,16 +6969,16 @@
         <v>502</v>
       </c>
       <c r="I102" s="3">
-        <v>3013.0</v>
+        <v>3013</v>
       </c>
       <c r="J102" s="3">
-        <v>3021.0</v>
+        <v>3021</v>
       </c>
       <c r="K102" s="6"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>503</v>
@@ -6982,18 +7002,18 @@
         <v>506</v>
       </c>
       <c r="I103" s="3">
-        <v>1329.0</v>
+        <v>1329</v>
       </c>
       <c r="J103" s="3">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="K103" s="3">
-        <v>1345.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>507</v>
@@ -7017,18 +7037,18 @@
         <v>512</v>
       </c>
       <c r="I104" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="J104" s="3">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="K104" s="3">
-        <v>454.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>513</v>
@@ -7053,9 +7073,9 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>517</v>
@@ -7077,16 +7097,16 @@
         <v>520</v>
       </c>
       <c r="I106" s="3">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="3">
-        <v>3241.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>521</v>
@@ -7111,9 +7131,9 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>525</v>
@@ -7135,18 +7155,18 @@
         <v>527</v>
       </c>
       <c r="I108" s="3">
-        <v>2120.0</v>
+        <v>2120</v>
       </c>
       <c r="J108" s="3">
-        <v>2141.0</v>
+        <v>2141</v>
       </c>
       <c r="K108" s="3">
-        <v>2251.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>528</v>
@@ -7168,18 +7188,18 @@
         <v>530</v>
       </c>
       <c r="I109" s="3">
-        <v>5281.0</v>
+        <v>5281</v>
       </c>
       <c r="J109" s="3">
-        <v>5299.0</v>
+        <v>5299</v>
       </c>
       <c r="K109" s="3">
-        <v>5317.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>531</v>
@@ -7203,16 +7223,16 @@
         <v>536</v>
       </c>
       <c r="I110" s="3">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="3">
-        <v>304.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>537</v>
@@ -7236,16 +7256,16 @@
         <v>542</v>
       </c>
       <c r="I111" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="3">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>543</v>
@@ -7269,18 +7289,18 @@
         <v>547</v>
       </c>
       <c r="I112" s="3">
-        <v>5334.0</v>
+        <v>5334</v>
       </c>
       <c r="J112" s="3">
-        <v>5353.0</v>
+        <v>5353</v>
       </c>
       <c r="K112" s="3">
-        <v>5386.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>548</v>
@@ -7307,9 +7327,9 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>551</v>
@@ -7336,9 +7356,9 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>555</v>
@@ -7362,14 +7382,14 @@
         <v>559</v>
       </c>
       <c r="I115" s="3">
-        <v>5319.0</v>
+        <v>5319</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>560</v>
@@ -7393,18 +7413,18 @@
         <v>562</v>
       </c>
       <c r="I116" s="3">
-        <v>1581.0</v>
+        <v>1581</v>
       </c>
       <c r="J116" s="3">
-        <v>1543.0</v>
+        <v>1543</v>
       </c>
       <c r="K116" s="3">
-        <v>1593.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>563</v>
@@ -7428,16 +7448,16 @@
         <v>566</v>
       </c>
       <c r="I117" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="J117" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="K117" s="6"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>567</v>
@@ -7461,18 +7481,18 @@
         <v>571</v>
       </c>
       <c r="I118" s="3">
-        <v>5659.0</v>
+        <v>5659</v>
       </c>
       <c r="J118" s="3">
-        <v>5664.0</v>
+        <v>5664</v>
       </c>
       <c r="K118" s="3">
-        <v>5681.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>572</v>
@@ -7497,9 +7517,9 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>576</v>
@@ -7526,9 +7546,9 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>581</v>
@@ -7554,12 +7574,12 @@
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="3">
-        <v>696.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>585</v>
@@ -7583,16 +7603,16 @@
         <v>589</v>
       </c>
       <c r="I122" s="3">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="J122" s="3">
-        <v>676.0</v>
+        <v>676</v>
       </c>
       <c r="K122" s="6"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>590</v>
@@ -7616,18 +7636,18 @@
         <v>595</v>
       </c>
       <c r="I123" s="3">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="J123" s="3">
-        <v>977.0</v>
+        <v>977</v>
       </c>
       <c r="K123" s="3">
-        <v>985.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>596</v>
@@ -7651,16 +7671,16 @@
         <v>600</v>
       </c>
       <c r="I124" s="3">
-        <v>3059.0</v>
+        <v>3059</v>
       </c>
       <c r="J124" s="3">
-        <v>3079.0</v>
+        <v>3079</v>
       </c>
       <c r="K124" s="6"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>601</v>
@@ -7680,18 +7700,18 @@
         <v>604</v>
       </c>
       <c r="I125" s="3">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="J125" s="3">
-        <v>1901.0</v>
+        <v>1901</v>
       </c>
       <c r="K125" s="3">
-        <v>1905.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>605</v>
@@ -7716,9 +7736,9 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>607</v>
@@ -7742,18 +7762,18 @@
         <v>612</v>
       </c>
       <c r="I127" s="3">
-        <v>1097.0</v>
+        <v>1097</v>
       </c>
       <c r="J127" s="3">
-        <v>1132.0</v>
+        <v>1132</v>
       </c>
       <c r="K127" s="3">
-        <v>1139.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>613</v>
@@ -7777,18 +7797,18 @@
         <v>616</v>
       </c>
       <c r="I128" s="3">
-        <v>4675.0</v>
+        <v>4675</v>
       </c>
       <c r="J128" s="3">
-        <v>4688.0</v>
+        <v>4688</v>
       </c>
       <c r="K128" s="3">
-        <v>4679.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>617</v>
@@ -7812,18 +7832,18 @@
         <v>622</v>
       </c>
       <c r="I129" s="3">
-        <v>547.0</v>
+        <v>547</v>
       </c>
       <c r="J129" s="3">
-        <v>554.0</v>
+        <v>554</v>
       </c>
       <c r="K129" s="3">
-        <v>541.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>623</v>
@@ -7843,16 +7863,16 @@
         <v>626</v>
       </c>
       <c r="I130" s="3">
-        <v>3571.0</v>
+        <v>3571</v>
       </c>
       <c r="J130" s="3">
-        <v>3686.0</v>
+        <v>3686</v>
       </c>
       <c r="K130" s="6"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>627</v>
@@ -7876,18 +7896,18 @@
         <v>631</v>
       </c>
       <c r="I131" s="3">
-        <v>688.0</v>
+        <v>688</v>
       </c>
       <c r="J131" s="3">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="K131" s="3">
-        <v>690.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>632</v>
@@ -7907,16 +7927,16 @@
       <c r="G132" s="6"/>
       <c r="H132" s="8"/>
       <c r="I132" s="3">
-        <v>3653.0</v>
+        <v>3653</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="3">
-        <v>8654.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>635</v>
@@ -7936,16 +7956,16 @@
       <c r="G133" s="6"/>
       <c r="H133" s="8"/>
       <c r="I133" s="3">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="3">
-        <v>1718.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>639</v>
@@ -7967,16 +7987,16 @@
         <v>644</v>
       </c>
       <c r="I134" s="3">
-        <v>1798.0</v>
+        <v>1798</v>
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="3">
-        <v>7610.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>645</v>
@@ -8000,18 +8020,18 @@
         <v>650</v>
       </c>
       <c r="I135" s="3">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="J135" s="3">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="K135" s="3">
-        <v>1118.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>651</v>
@@ -8033,18 +8053,18 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="3">
-        <v>3551.0</v>
+        <v>3551</v>
       </c>
       <c r="J136" s="3">
-        <v>3572.0</v>
+        <v>3572</v>
       </c>
       <c r="K136" s="3">
-        <v>3572.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>652</v>
@@ -8068,16 +8088,16 @@
         <v>657</v>
       </c>
       <c r="I137" s="3">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="J137" s="3">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="K137" s="6"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>658</v>
@@ -8100,15 +8120,15 @@
       <c r="H138" s="8"/>
       <c r="I138" s="6"/>
       <c r="J138" s="3">
-        <v>2929.0</v>
+        <v>2929</v>
       </c>
       <c r="K138" s="3">
-        <v>2934.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>662</v>
@@ -8132,16 +8152,16 @@
         <v>666</v>
       </c>
       <c r="I139" s="3">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="J139" s="3">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="K139" s="6"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>667</v>
@@ -8165,16 +8185,16 @@
         <v>671</v>
       </c>
       <c r="I140" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="3">
-        <v>3722.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>672</v>
@@ -8198,18 +8218,18 @@
         <v>678</v>
       </c>
       <c r="I141" s="3">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="J141" s="3">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="K141" s="3">
-        <v>218.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>679</v>
@@ -8236,9 +8256,9 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>684</v>
@@ -8262,18 +8282,18 @@
         <v>689</v>
       </c>
       <c r="I143" s="3">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="J143" s="3" t="s">
         <v>690</v>
       </c>
       <c r="K143" s="3">
-        <v>1736.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>691</v>
@@ -8300,9 +8320,9 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>696</v>
@@ -8326,18 +8346,18 @@
         <v>700</v>
       </c>
       <c r="I145" s="3">
-        <v>3176.0</v>
+        <v>3176</v>
       </c>
       <c r="J145" s="3">
-        <v>3185.0</v>
+        <v>3185</v>
       </c>
       <c r="K145" s="3">
-        <v>2203.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>701</v>
@@ -8361,18 +8381,18 @@
         <v>705</v>
       </c>
       <c r="I146" s="3">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="J146" s="3">
-        <v>923.0</v>
+        <v>923</v>
       </c>
       <c r="K146" s="3">
-        <v>931.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>706</v>
@@ -8399,9 +8419,9 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>712</v>
@@ -8424,13 +8444,13 @@
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="3">
-        <v>2264.0</v>
+        <v>2264</v>
       </c>
       <c r="K148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>717</v>
@@ -8454,18 +8474,18 @@
         <v>721</v>
       </c>
       <c r="I149" s="3">
-        <v>799.0</v>
+        <v>799</v>
       </c>
       <c r="J149" s="3">
-        <v>806.0</v>
+        <v>806</v>
       </c>
       <c r="K149" s="3">
-        <v>819.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>722</v>
@@ -8487,18 +8507,18 @@
         <v>725</v>
       </c>
       <c r="I150" s="3">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="J150" s="3">
-        <v>644.0</v>
+        <v>644</v>
       </c>
       <c r="K150" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>726</v>
@@ -8525,9 +8545,9 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>731</v>
@@ -8550,9 +8570,9 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>735</v>
@@ -8579,9 +8599,9 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>740</v>
@@ -8605,16 +8625,16 @@
         <v>744</v>
       </c>
       <c r="I154" s="3">
-        <v>1159.0</v>
+        <v>1159</v>
       </c>
       <c r="J154" s="3">
-        <v>1168.0</v>
+        <v>1168</v>
       </c>
       <c r="K154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>745</v>
@@ -8634,18 +8654,18 @@
         <v>747</v>
       </c>
       <c r="I155" s="3">
-        <v>2625.0</v>
+        <v>2625</v>
       </c>
       <c r="J155" s="3">
-        <v>2632.0</v>
+        <v>2632</v>
       </c>
       <c r="K155" s="3">
-        <v>2660.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>748</v>
@@ -8667,16 +8687,16 @@
         <v>751</v>
       </c>
       <c r="I156" s="3">
-        <v>1615.0</v>
+        <v>1615</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="3">
-        <v>1615.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>752</v>
@@ -8696,16 +8716,16 @@
         <v>754</v>
       </c>
       <c r="I157" s="3">
-        <v>7414.0</v>
+        <v>7414</v>
       </c>
       <c r="J157" s="3">
-        <v>7421.0</v>
+        <v>7421</v>
       </c>
       <c r="K157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>755</v>
@@ -8729,16 +8749,16 @@
         <v>759</v>
       </c>
       <c r="I158" s="3">
-        <v>13578.0</v>
+        <v>13578</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="3">
-        <v>13590.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>760</v>
@@ -8758,18 +8778,18 @@
         <v>761</v>
       </c>
       <c r="I159" s="3">
-        <v>4442.0</v>
+        <v>4442</v>
       </c>
       <c r="J159" s="3">
-        <v>4446.0</v>
+        <v>4446</v>
       </c>
       <c r="K159" s="3">
-        <v>4467.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>762</v>
@@ -8791,18 +8811,18 @@
         <v>766</v>
       </c>
       <c r="I160" s="3">
-        <v>2372.0</v>
+        <v>2372</v>
       </c>
       <c r="J160" s="3">
-        <v>2384.0</v>
+        <v>2384</v>
       </c>
       <c r="K160" s="3">
-        <v>2379.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>767</v>
@@ -8824,18 +8844,18 @@
         <v>771</v>
       </c>
       <c r="I161" s="3">
-        <v>3413.0</v>
+        <v>3413</v>
       </c>
       <c r="J161" s="3">
-        <v>3427.0</v>
+        <v>3427</v>
       </c>
       <c r="K161" s="3">
-        <v>3440.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>772</v>
@@ -8859,18 +8879,18 @@
         <v>773</v>
       </c>
       <c r="I162" s="3">
-        <v>3006.0</v>
+        <v>3006</v>
       </c>
       <c r="J162" s="3">
-        <v>3018.0</v>
+        <v>3018</v>
       </c>
       <c r="K162" s="3">
-        <v>3045.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>774</v>
@@ -8895,9 +8915,9 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>779</v>
@@ -8921,18 +8941,18 @@
         <v>785</v>
       </c>
       <c r="I164" s="3">
-        <v>858.0</v>
+        <v>858</v>
       </c>
       <c r="J164" s="3">
-        <v>858.0</v>
+        <v>858</v>
       </c>
       <c r="K164" s="3">
-        <v>864.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>786</v>
@@ -8956,18 +8976,18 @@
         <v>791</v>
       </c>
       <c r="I165" s="3">
-        <v>2262.0</v>
+        <v>2262</v>
       </c>
       <c r="J165" s="3">
-        <v>2272.0</v>
+        <v>2272</v>
       </c>
       <c r="K165" s="3">
-        <v>2299.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>792</v>
@@ -8991,18 +9011,18 @@
         <v>797</v>
       </c>
       <c r="I166" s="3">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="J166" s="3">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="K166" s="3">
-        <v>1999.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>798</v>
@@ -9024,16 +9044,16 @@
         <v>802</v>
       </c>
       <c r="I167" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="3">
-        <v>179.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>803</v>
@@ -9057,18 +9077,18 @@
         <v>807</v>
       </c>
       <c r="I168" s="3">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="J168" s="3">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="K168" s="3">
-        <v>647.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>808</v>
@@ -9095,9 +9115,9 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>813</v>
@@ -9119,18 +9139,18 @@
         <v>816</v>
       </c>
       <c r="I170" s="3">
-        <v>1633.0</v>
+        <v>1633</v>
       </c>
       <c r="J170" s="3">
-        <v>1645.0</v>
+        <v>1645</v>
       </c>
       <c r="K170" s="3">
-        <v>1670.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>817</v>
@@ -9152,18 +9172,18 @@
         <v>820</v>
       </c>
       <c r="I171" s="3">
-        <v>2268.0</v>
+        <v>2268</v>
       </c>
       <c r="J171" s="3">
-        <v>2276.0</v>
+        <v>2276</v>
       </c>
       <c r="K171" s="3">
-        <v>2298.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>821</v>
@@ -9188,9 +9208,9 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>824</v>
@@ -9217,9 +9237,9 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>829</v>
@@ -9246,9 +9266,9 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>834</v>
@@ -9272,16 +9292,16 @@
         <v>839</v>
       </c>
       <c r="I175" s="3">
-        <v>1373.0</v>
+        <v>1373</v>
       </c>
       <c r="J175" s="3">
-        <v>1377.0</v>
+        <v>1377</v>
       </c>
       <c r="K175" s="6"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>840</v>
@@ -9305,18 +9325,18 @@
         <v>843</v>
       </c>
       <c r="I176" s="3">
-        <v>2442.0</v>
+        <v>2442</v>
       </c>
       <c r="J176" s="3">
-        <v>2453.0</v>
+        <v>2453</v>
       </c>
       <c r="K176" s="3">
-        <v>2488.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>844</v>
@@ -9340,16 +9360,16 @@
         <v>848</v>
       </c>
       <c r="I177" s="3">
-        <v>2968.0</v>
+        <v>2968</v>
       </c>
       <c r="J177" s="3">
-        <v>2972.0</v>
+        <v>2972</v>
       </c>
       <c r="K177" s="6"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>849</v>
@@ -9371,14 +9391,14 @@
         <v>852</v>
       </c>
       <c r="I178" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>853</v>
@@ -9405,9 +9425,9 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>859</v>
@@ -9431,16 +9451,16 @@
         <v>863</v>
       </c>
       <c r="I180" s="3">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="J180" s="3">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="K180" s="6"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>864</v>
@@ -9462,16 +9482,16 @@
         <v>868</v>
       </c>
       <c r="I181" s="3">
-        <v>1265.0</v>
+        <v>1265</v>
       </c>
       <c r="J181" s="3">
-        <v>1269.0</v>
+        <v>1269</v>
       </c>
       <c r="K181" s="6"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>869</v>
@@ -9493,16 +9513,16 @@
         <v>871</v>
       </c>
       <c r="I182" s="3">
-        <v>2718.0</v>
+        <v>2718</v>
       </c>
       <c r="J182" s="3">
-        <v>2723.0</v>
+        <v>2723</v>
       </c>
       <c r="K182" s="6"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>872</v>
@@ -9524,16 +9544,16 @@
         <v>876</v>
       </c>
       <c r="I183" s="3">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="J183" s="3">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="K183" s="6"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>877</v>
@@ -9557,16 +9577,16 @@
         <v>881</v>
       </c>
       <c r="I184" s="3">
-        <v>9621.0</v>
+        <v>9621</v>
       </c>
       <c r="J184" s="3">
-        <v>9628.0</v>
+        <v>9628</v>
       </c>
       <c r="K184" s="6"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>882</v>
@@ -9588,16 +9608,16 @@
         <v>885</v>
       </c>
       <c r="I185" s="3">
-        <v>3355.0</v>
+        <v>3355</v>
       </c>
       <c r="J185" s="3">
-        <v>3366.0</v>
+        <v>3366</v>
       </c>
       <c r="K185" s="6"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>886</v>
@@ -9621,16 +9641,16 @@
         <v>890</v>
       </c>
       <c r="I186" s="3">
-        <v>4558.0</v>
+        <v>4558</v>
       </c>
       <c r="J186" s="3">
-        <v>4563.0</v>
+        <v>4563</v>
       </c>
       <c r="K186" s="6"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>891</v>
@@ -9654,16 +9674,16 @@
         <v>895</v>
       </c>
       <c r="I187" s="3">
-        <v>2395.0</v>
+        <v>2395</v>
       </c>
       <c r="J187" s="3">
-        <v>2403.0</v>
+        <v>2403</v>
       </c>
       <c r="K187" s="6"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>896</v>
@@ -9685,16 +9705,16 @@
         <v>899</v>
       </c>
       <c r="I188" s="3">
-        <v>2615.0</v>
+        <v>2615</v>
       </c>
       <c r="J188" s="3">
-        <v>2617.0</v>
+        <v>2617</v>
       </c>
       <c r="K188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>900</v>
@@ -9716,16 +9736,16 @@
         <v>902</v>
       </c>
       <c r="I189" s="3">
-        <v>1439.0</v>
+        <v>1439</v>
       </c>
       <c r="J189" s="3">
-        <v>1444.0</v>
+        <v>1444</v>
       </c>
       <c r="K189" s="6"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>903</v>
@@ -9749,18 +9769,18 @@
         <v>907</v>
       </c>
       <c r="I190" s="3">
-        <v>4813.0</v>
+        <v>4813</v>
       </c>
       <c r="J190" s="3">
-        <v>4822.0</v>
+        <v>4822</v>
       </c>
       <c r="K190" s="3">
-        <v>4867.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>908</v>
@@ -9784,18 +9804,18 @@
         <v>912</v>
       </c>
       <c r="I191" s="3">
-        <v>3605.0</v>
+        <v>3605</v>
       </c>
       <c r="J191" s="3">
-        <v>3617.0</v>
+        <v>3617</v>
       </c>
       <c r="K191" s="3">
-        <v>3658.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>913</v>
@@ -9820,9 +9840,9 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>916</v>
@@ -9846,18 +9866,18 @@
         <v>920</v>
       </c>
       <c r="I193" s="3">
-        <v>1333.0</v>
+        <v>1333</v>
       </c>
       <c r="J193" s="3">
-        <v>1341.0</v>
+        <v>1341</v>
       </c>
       <c r="K193" s="3">
-        <v>1450.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>921</v>
@@ -9881,12 +9901,12 @@
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="3">
-        <v>3013.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>925</v>
@@ -9912,12 +9932,12 @@
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="3">
-        <v>2510.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>930</v>
@@ -9941,18 +9961,18 @@
         <v>932</v>
       </c>
       <c r="I196" s="3">
-        <v>3504.0</v>
+        <v>3504</v>
       </c>
       <c r="J196" s="3">
-        <v>3516.0</v>
+        <v>3516</v>
       </c>
       <c r="K196" s="3">
-        <v>3527.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>933</v>
@@ -9973,15 +9993,15 @@
       <c r="H197" s="7"/>
       <c r="I197" s="6"/>
       <c r="J197" s="3">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="K197" s="3">
-        <v>10255.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>10255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>936</v>
@@ -10005,18 +10025,18 @@
         <v>940</v>
       </c>
       <c r="I198" s="3">
-        <v>3761.0</v>
+        <v>3761</v>
       </c>
       <c r="J198" s="3">
-        <v>3775.0</v>
+        <v>3775</v>
       </c>
       <c r="K198" s="3">
-        <v>3787.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>941</v>
@@ -10038,18 +10058,18 @@
         <v>944</v>
       </c>
       <c r="I199" s="3">
-        <v>2718.0</v>
+        <v>2718</v>
       </c>
       <c r="J199" s="3">
-        <v>2727.0</v>
+        <v>2727</v>
       </c>
       <c r="K199" s="3">
-        <v>2761.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>945</v>
@@ -10071,18 +10091,18 @@
         <v>948</v>
       </c>
       <c r="I200" s="3">
-        <v>784.0</v>
+        <v>784</v>
       </c>
       <c r="J200" s="3">
-        <v>792.0</v>
+        <v>792</v>
       </c>
       <c r="K200" s="3">
-        <v>722.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>949</v>
@@ -10104,18 +10124,18 @@
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="3">
-        <v>3122.0</v>
+        <v>3122</v>
       </c>
       <c r="J201" s="3">
-        <v>3134.0</v>
+        <v>3134</v>
       </c>
       <c r="K201" s="3">
-        <v>3155.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>954</v>
@@ -10137,18 +10157,18 @@
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="3">
-        <v>5511.0</v>
+        <v>5511</v>
       </c>
       <c r="J202" s="3">
-        <v>5522.0</v>
+        <v>5522</v>
       </c>
       <c r="K202" s="3">
-        <v>5529.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>959</v>
@@ -10172,18 +10192,18 @@
         <v>964</v>
       </c>
       <c r="I203" s="3">
-        <v>3439.0</v>
+        <v>3439</v>
       </c>
       <c r="J203" s="3">
-        <v>3439.0</v>
+        <v>3439</v>
       </c>
       <c r="K203" s="3">
-        <v>3439.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>965</v>
@@ -10210,9 +10230,9 @@
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>970</v>
@@ -10236,18 +10256,18 @@
         <v>974</v>
       </c>
       <c r="I205" s="3">
-        <v>1947.0</v>
+        <v>1947</v>
       </c>
       <c r="J205" s="3">
-        <v>1955.0</v>
+        <v>1955</v>
       </c>
       <c r="K205" s="3">
-        <v>1980.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>975</v>
@@ -10271,18 +10291,18 @@
         <v>979</v>
       </c>
       <c r="I206" s="3">
-        <v>1249.0</v>
+        <v>1249</v>
       </c>
       <c r="J206" s="3">
-        <v>1261.0</v>
+        <v>1261</v>
       </c>
       <c r="K206" s="3">
-        <v>1894.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>980</v>
@@ -10307,9 +10327,9 @@
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>985</v>
@@ -10334,9 +10354,9 @@
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>990</v>
@@ -10361,9 +10381,9 @@
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>994</v>
@@ -10387,18 +10407,18 @@
         <v>997</v>
       </c>
       <c r="I210" s="3">
-        <v>5367.0</v>
+        <v>5367</v>
       </c>
       <c r="J210" s="3">
-        <v>5377.0</v>
+        <v>5377</v>
       </c>
       <c r="K210" s="3">
-        <v>5410.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>998</v>
@@ -10422,16 +10442,16 @@
         <v>1002</v>
       </c>
       <c r="I211" s="3">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="J211" s="6"/>
       <c r="K211" s="3">
-        <v>302.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>1003</v>
@@ -10456,9 +10476,9 @@
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>1005</v>
@@ -10482,18 +10502,18 @@
         <v>1009</v>
       </c>
       <c r="I213" s="3">
-        <v>539.0</v>
+        <v>539</v>
       </c>
       <c r="J213" s="3">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="K213" s="3">
-        <v>548.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>1010</v>
@@ -10517,14 +10537,14 @@
         <v>1013</v>
       </c>
       <c r="I214" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>1014</v>
@@ -10548,14 +10568,14 @@
         <v>1019</v>
       </c>
       <c r="I215" s="3">
-        <v>5575.0</v>
+        <v>5575</v>
       </c>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>1020</v>
@@ -10577,18 +10597,18 @@
         <v>1023</v>
       </c>
       <c r="I216" s="3">
-        <v>2562.0</v>
+        <v>2562</v>
       </c>
       <c r="J216" s="3">
-        <v>2579.0</v>
+        <v>2579</v>
       </c>
       <c r="K216" s="3">
-        <v>2590.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>1024</v>
@@ -10612,18 +10632,18 @@
         <v>1029</v>
       </c>
       <c r="I217" s="3">
-        <v>1691.0</v>
+        <v>1691</v>
       </c>
       <c r="J217" s="3">
-        <v>1699.0</v>
+        <v>1699</v>
       </c>
       <c r="K217" s="3">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>1030</v>
@@ -10647,16 +10667,16 @@
         <v>1032</v>
       </c>
       <c r="I218" s="3">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="J218" s="3">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="K218" s="6"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>1033</v>
@@ -10681,9 +10701,9 @@
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>1038</v>
@@ -10707,18 +10727,18 @@
         <v>1042</v>
       </c>
       <c r="I220" s="3">
-        <v>1377.0</v>
+        <v>1377</v>
       </c>
       <c r="J220" s="3">
-        <v>1391.0</v>
+        <v>1391</v>
       </c>
       <c r="K220" s="3">
-        <v>1419.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>1043</v>
@@ -10742,18 +10762,18 @@
         <v>1046</v>
       </c>
       <c r="I221" s="3">
-        <v>3560.0</v>
+        <v>3560</v>
       </c>
       <c r="J221" s="3">
-        <v>3574.0</v>
+        <v>3574</v>
       </c>
       <c r="K221" s="3">
-        <v>3613.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>1047</v>
@@ -10777,16 +10797,16 @@
         <v>1051</v>
       </c>
       <c r="I222" s="3">
-        <v>7240.0</v>
+        <v>7240</v>
       </c>
       <c r="J222" s="6"/>
       <c r="K222" s="3">
-        <v>7280.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>1052</v>
@@ -10813,9 +10833,9 @@
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>1056</v>
@@ -10839,16 +10859,16 @@
         <v>1061</v>
       </c>
       <c r="I224" s="3">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="J224" s="3">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="K224" s="6"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>1062</v>
@@ -10872,16 +10892,16 @@
         <v>1065</v>
       </c>
       <c r="I225" s="3">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="J225" s="6"/>
       <c r="K225" s="3">
-        <v>197.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>1066</v>
@@ -10905,18 +10925,18 @@
         <v>1071</v>
       </c>
       <c r="I226" s="3">
-        <v>811.0</v>
+        <v>811</v>
       </c>
       <c r="J226" s="3">
-        <v>824.0</v>
+        <v>824</v>
       </c>
       <c r="K226" s="3">
-        <v>859.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>1072</v>
@@ -10940,18 +10960,18 @@
         <v>1075</v>
       </c>
       <c r="I227" s="3">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="J227" s="3">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="K227" s="3">
-        <v>288.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>1076</v>
@@ -10975,18 +10995,18 @@
         <v>1080</v>
       </c>
       <c r="I228" s="3">
-        <v>3049.0</v>
+        <v>3049</v>
       </c>
       <c r="J228" s="3">
-        <v>3057.0</v>
+        <v>3057</v>
       </c>
       <c r="K228" s="3">
-        <v>3070.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B229" s="8"/>
       <c r="C229" s="5"/>
@@ -10999,9 +11019,9 @@
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B230" s="8"/>
       <c r="C230" s="5"/>
@@ -11014,9 +11034,9 @@
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="5"/>
@@ -11029,9 +11049,9 @@
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="5"/>
@@ -11044,9 +11064,9 @@
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="5"/>
@@ -11059,9 +11079,9 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B234" s="8"/>
       <c r="C234" s="5"/>
@@ -11074,9 +11094,9 @@
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B235" s="8"/>
       <c r="C235" s="5"/>
@@ -11089,9 +11109,9 @@
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
@@ -11104,7 +11124,7 @@
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
@@ -11117,7 +11137,7 @@
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="5"/>
@@ -11130,7 +11150,7 @@
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="5"/>
@@ -11143,7 +11163,7 @@
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="5"/>
@@ -11156,7 +11176,7 @@
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="5"/>
@@ -11169,7 +11189,7 @@
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="8"/>
       <c r="C242" s="5"/>
@@ -11182,7 +11202,7 @@
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="8"/>
       <c r="C243" s="5"/>
@@ -11195,7 +11215,7 @@
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="5"/>
@@ -11208,7 +11228,7 @@
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="5"/>
@@ -11221,7 +11241,7 @@
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="5"/>
@@ -11234,7 +11254,7 @@
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="5"/>
@@ -11247,7 +11267,7 @@
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="5"/>
@@ -11260,7 +11280,7 @@
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="5"/>
@@ -11273,7 +11293,7 @@
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="5"/>
@@ -11286,7 +11306,7 @@
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="5"/>
@@ -11299,7 +11319,7 @@
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="5"/>
@@ -11312,7 +11332,7 @@
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="8"/>
       <c r="C253" s="5"/>
@@ -11325,3752 +11345,3752 @@
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B254" s="9"/>
       <c r="C254" s="5"/>
       <c r="H254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="H255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="H256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="H257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="H258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="H259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="H260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="H261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="H262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
       <c r="H263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="H264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
       <c r="H265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
       <c r="H266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
       <c r="H267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
       <c r="H268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
       <c r="H269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
       <c r="H270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
       <c r="H271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
       <c r="H272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
       <c r="H273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
       <c r="H274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
       <c r="H275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="H276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
       <c r="H277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
       <c r="H278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
       <c r="H279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="H280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="H281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
       <c r="H282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
       <c r="H283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="H284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="H285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="H286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
       <c r="H287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="H288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
       <c r="H289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
       <c r="H290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
       <c r="H291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="H292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="H293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
       <c r="H294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
       <c r="H295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
       <c r="H296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
       <c r="H297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
       <c r="H298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
       <c r="H299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
       <c r="H300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
       <c r="H301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
       <c r="H302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
       <c r="H303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
       <c r="H304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
       <c r="H305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
       <c r="H306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
       <c r="H307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
       <c r="H308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
       <c r="H309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
       <c r="H310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
       <c r="H311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
       <c r="H312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
       <c r="H313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
       <c r="H314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
       <c r="H315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
       <c r="H316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
       <c r="H317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
       <c r="H318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
       <c r="H319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
       <c r="H320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
       <c r="H321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
       <c r="H322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="H323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
       <c r="H324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
       <c r="H325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
       <c r="H326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
       <c r="H327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
       <c r="H328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
       <c r="H329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
       <c r="H330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
       <c r="H331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="H332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="H333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="H334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="H335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="H336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="H337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="H338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="H339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="H340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="H341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="H342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="H343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="H344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="H345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="H346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="H347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="H348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="H349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="H350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="H351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="H352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="H353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="H354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="H355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="H356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="H357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="H358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="H359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="H360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="H361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="H362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="H363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="H364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="H365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="H366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="H367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="H368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="H369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="H370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="H371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="H372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="H373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
       <c r="H374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
       <c r="H375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
       <c r="H376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
       <c r="H377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
       <c r="H378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
       <c r="H379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="H380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="H381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
       <c r="H382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
       <c r="H383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
       <c r="H384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
       <c r="H385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
       <c r="H386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
       <c r="H387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
       <c r="H388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
       <c r="H389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
       <c r="H390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="H391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="H392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="H393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="H394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="H395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="H396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
       <c r="H397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
       <c r="H398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
       <c r="H399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
       <c r="H400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
       <c r="H401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
       <c r="H402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
       <c r="H403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
       <c r="H404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
       <c r="H405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
       <c r="H406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
       <c r="H407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
       <c r="H408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
       <c r="H409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
       <c r="H410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
       <c r="H411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
       <c r="H412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
       <c r="H413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
       <c r="H414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
       <c r="H415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
       <c r="H416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
       <c r="H417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
       <c r="H418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
       <c r="H419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
       <c r="H420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
       <c r="H421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
       <c r="H422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
       <c r="H423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
       <c r="H424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
       <c r="H425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
       <c r="H426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
       <c r="H427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
       <c r="H428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
       <c r="H429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
       <c r="H430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
       <c r="H431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
       <c r="H432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
       <c r="H433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
       <c r="H434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
       <c r="H435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
       <c r="H436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
       <c r="H437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
       <c r="H438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
       <c r="H439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
       <c r="H440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
       <c r="H441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
       <c r="H442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
       <c r="H443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
       <c r="H444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
       <c r="H445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
       <c r="H446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
       <c r="H447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
       <c r="H448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
       <c r="H449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
       <c r="H450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
       <c r="H451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
       <c r="H452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
       <c r="H453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
       <c r="H454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
       <c r="H455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
       <c r="H456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
       <c r="H457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
       <c r="H458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
       <c r="H459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
       <c r="H460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
       <c r="H461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
       <c r="H462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
       <c r="H463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
       <c r="H464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
       <c r="H465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
       <c r="H466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
       <c r="H467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
       <c r="H468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
       <c r="H469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
       <c r="H470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
       <c r="H471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
       <c r="H472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
       <c r="H473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
       <c r="H474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
       <c r="H475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
       <c r="H476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
       <c r="H477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
       <c r="H478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
       <c r="H479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
       <c r="H480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
       <c r="H481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
       <c r="H482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
       <c r="H483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
       <c r="H484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
       <c r="H485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
       <c r="H486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
       <c r="H487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
       <c r="H488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
       <c r="H489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
       <c r="H490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
       <c r="H491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
       <c r="H492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
       <c r="H493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
       <c r="H494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
       <c r="H495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
       <c r="H496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
       <c r="H497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
       <c r="H498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
       <c r="H499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
       <c r="H500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
       <c r="H501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
       <c r="H502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
       <c r="H503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
       <c r="H504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
       <c r="H505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
       <c r="H506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
       <c r="H507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
       <c r="H508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
       <c r="H509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
       <c r="H510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
       <c r="H511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
       <c r="H512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
       <c r="H513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
       <c r="H514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
       <c r="H515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
       <c r="H516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
       <c r="H517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
       <c r="H518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
       <c r="H519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
       <c r="H520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
       <c r="H521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
       <c r="H522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
       <c r="H523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
       <c r="H524" s="9"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
       <c r="H525" s="9"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
       <c r="H526" s="9"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
       <c r="H527" s="9"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
       <c r="H528" s="9"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
       <c r="H529" s="9"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
       <c r="H530" s="9"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
       <c r="H531" s="9"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
       <c r="H532" s="9"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
       <c r="H533" s="9"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
       <c r="H534" s="9"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
       <c r="H535" s="9"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
       <c r="H536" s="9"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
       <c r="H537" s="9"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
       <c r="H538" s="9"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
       <c r="H539" s="9"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
       <c r="H540" s="9"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
       <c r="H541" s="9"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
       <c r="H542" s="9"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
       <c r="H543" s="9"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
       <c r="H544" s="9"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
       <c r="H545" s="9"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
       <c r="H546" s="9"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
       <c r="H547" s="9"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
       <c r="H548" s="9"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
       <c r="H549" s="9"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
       <c r="H550" s="9"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
       <c r="H551" s="9"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
       <c r="H552" s="9"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
       <c r="H553" s="9"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
       <c r="H554" s="9"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
       <c r="H555" s="9"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
       <c r="H556" s="9"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
       <c r="H557" s="9"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
       <c r="H558" s="9"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
       <c r="H559" s="9"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
       <c r="H560" s="9"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
       <c r="H561" s="9"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
       <c r="H562" s="9"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
       <c r="H563" s="9"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
       <c r="H564" s="9"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
       <c r="H565" s="9"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
       <c r="H566" s="9"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
       <c r="H567" s="9"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
       <c r="H568" s="9"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
       <c r="H569" s="9"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
       <c r="H570" s="9"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
       <c r="H571" s="9"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
       <c r="H572" s="9"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
       <c r="H573" s="9"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
       <c r="H574" s="9"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
       <c r="H575" s="9"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
       <c r="H576" s="9"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
       <c r="H577" s="9"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
       <c r="H578" s="9"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
       <c r="H579" s="9"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
       <c r="H580" s="9"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
       <c r="H581" s="9"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
       <c r="H582" s="9"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
       <c r="H583" s="9"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
       <c r="H584" s="9"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
       <c r="H585" s="9"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
       <c r="H586" s="9"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
       <c r="H587" s="9"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
       <c r="H588" s="9"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
       <c r="H589" s="9"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
       <c r="H590" s="9"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
       <c r="H591" s="9"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
       <c r="H592" s="9"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
       <c r="H593" s="9"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
       <c r="H594" s="9"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
       <c r="H595" s="9"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
       <c r="H596" s="9"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
       <c r="H597" s="9"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
       <c r="H598" s="9"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
       <c r="H599" s="9"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
       <c r="H600" s="9"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
       <c r="H601" s="9"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
       <c r="H602" s="9"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
       <c r="H603" s="9"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
       <c r="H604" s="9"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
       <c r="H605" s="9"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
       <c r="H606" s="9"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
       <c r="H607" s="9"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
       <c r="H608" s="9"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
       <c r="H609" s="9"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
       <c r="H610" s="9"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
       <c r="H611" s="9"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
       <c r="H612" s="9"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
       <c r="H613" s="9"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
       <c r="H614" s="9"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
       <c r="H615" s="9"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
       <c r="H616" s="9"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
       <c r="H617" s="9"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
       <c r="H618" s="9"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
       <c r="H619" s="9"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
       <c r="H620" s="9"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
       <c r="H621" s="9"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
       <c r="H622" s="9"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
       <c r="H623" s="9"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
       <c r="H624" s="9"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
       <c r="H625" s="9"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
       <c r="H626" s="9"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
       <c r="H627" s="9"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
       <c r="H628" s="9"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
       <c r="H629" s="9"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
       <c r="H630" s="9"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
       <c r="H631" s="9"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
       <c r="H632" s="9"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
       <c r="H633" s="9"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
       <c r="H634" s="9"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
       <c r="H635" s="9"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
       <c r="H636" s="9"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
       <c r="H637" s="9"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
       <c r="H638" s="9"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
       <c r="H639" s="9"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
       <c r="H640" s="9"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
       <c r="H641" s="9"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
       <c r="H642" s="9"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
       <c r="H643" s="9"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
       <c r="H644" s="9"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
       <c r="H645" s="9"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
       <c r="H646" s="9"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
       <c r="H647" s="9"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
       <c r="H648" s="9"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
       <c r="H649" s="9"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
       <c r="H650" s="9"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
       <c r="H651" s="9"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
       <c r="H652" s="9"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
       <c r="H653" s="9"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
       <c r="H654" s="9"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
       <c r="H655" s="9"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
       <c r="H656" s="9"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
       <c r="H657" s="9"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
       <c r="H658" s="9"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
       <c r="H659" s="9"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
       <c r="H660" s="9"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
       <c r="H661" s="9"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
       <c r="H662" s="9"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
       <c r="H663" s="9"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
       <c r="H664" s="9"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
       <c r="H665" s="9"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
       <c r="H666" s="9"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
       <c r="H667" s="9"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
       <c r="H668" s="9"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
       <c r="H669" s="9"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
       <c r="H670" s="9"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
       <c r="H671" s="9"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
       <c r="H672" s="9"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
       <c r="H673" s="9"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
       <c r="H674" s="9"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
       <c r="H675" s="9"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
       <c r="H676" s="9"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
       <c r="H677" s="9"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
       <c r="H678" s="9"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
       <c r="H679" s="9"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
       <c r="H680" s="9"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
       <c r="H681" s="9"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
       <c r="H682" s="9"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
       <c r="H683" s="9"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
       <c r="H684" s="9"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
       <c r="H685" s="9"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
       <c r="H686" s="9"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
       <c r="H687" s="9"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
       <c r="H688" s="9"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
       <c r="H689" s="9"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
       <c r="H690" s="9"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
       <c r="H691" s="9"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
       <c r="H692" s="9"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
       <c r="H693" s="9"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
       <c r="H694" s="9"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
       <c r="H695" s="9"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
       <c r="H696" s="9"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
       <c r="H697" s="9"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
       <c r="H698" s="9"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
       <c r="H699" s="9"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
       <c r="H700" s="9"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
       <c r="H701" s="9"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
       <c r="H702" s="9"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
       <c r="H703" s="9"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
       <c r="H704" s="9"/>
     </row>
-    <row r="705">
+    <row r="705" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
       <c r="H705" s="9"/>
     </row>
-    <row r="706">
+    <row r="706" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
       <c r="H706" s="9"/>
     </row>
-    <row r="707">
+    <row r="707" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
       <c r="H707" s="9"/>
     </row>
-    <row r="708">
+    <row r="708" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
       <c r="H708" s="9"/>
     </row>
-    <row r="709">
+    <row r="709" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
       <c r="H709" s="9"/>
     </row>
-    <row r="710">
+    <row r="710" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
       <c r="H710" s="9"/>
     </row>
-    <row r="711">
+    <row r="711" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
       <c r="H711" s="9"/>
     </row>
-    <row r="712">
+    <row r="712" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
       <c r="H712" s="9"/>
     </row>
-    <row r="713">
+    <row r="713" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
       <c r="H713" s="9"/>
     </row>
-    <row r="714">
+    <row r="714" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
       <c r="H714" s="9"/>
     </row>
-    <row r="715">
+    <row r="715" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
       <c r="H715" s="9"/>
     </row>
-    <row r="716">
+    <row r="716" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
       <c r="H716" s="9"/>
     </row>
-    <row r="717">
+    <row r="717" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
       <c r="H717" s="9"/>
     </row>
-    <row r="718">
+    <row r="718" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
       <c r="H718" s="9"/>
     </row>
-    <row r="719">
+    <row r="719" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
       <c r="H719" s="9"/>
     </row>
-    <row r="720">
+    <row r="720" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
       <c r="H720" s="9"/>
     </row>
-    <row r="721">
+    <row r="721" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
       <c r="H721" s="9"/>
     </row>
-    <row r="722">
+    <row r="722" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
       <c r="H722" s="9"/>
     </row>
-    <row r="723">
+    <row r="723" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
       <c r="H723" s="9"/>
     </row>
-    <row r="724">
+    <row r="724" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
       <c r="H724" s="9"/>
     </row>
-    <row r="725">
+    <row r="725" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
       <c r="H725" s="9"/>
     </row>
-    <row r="726">
+    <row r="726" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
       <c r="H726" s="9"/>
     </row>
-    <row r="727">
+    <row r="727" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
       <c r="H727" s="9"/>
     </row>
-    <row r="728">
+    <row r="728" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
       <c r="H728" s="9"/>
     </row>
-    <row r="729">
+    <row r="729" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
       <c r="H729" s="9"/>
     </row>
-    <row r="730">
+    <row r="730" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
       <c r="H730" s="9"/>
     </row>
-    <row r="731">
+    <row r="731" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
       <c r="H731" s="9"/>
     </row>
-    <row r="732">
+    <row r="732" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
       <c r="H732" s="9"/>
     </row>
-    <row r="733">
+    <row r="733" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
       <c r="H733" s="9"/>
     </row>
-    <row r="734">
+    <row r="734" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
       <c r="H734" s="9"/>
     </row>
-    <row r="735">
+    <row r="735" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
       <c r="H735" s="9"/>
     </row>
-    <row r="736">
+    <row r="736" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
       <c r="H736" s="9"/>
     </row>
-    <row r="737">
+    <row r="737" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
       <c r="H737" s="9"/>
     </row>
-    <row r="738">
+    <row r="738" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
       <c r="H738" s="9"/>
     </row>
-    <row r="739">
+    <row r="739" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
       <c r="H739" s="9"/>
     </row>
-    <row r="740">
+    <row r="740" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
       <c r="H740" s="9"/>
     </row>
-    <row r="741">
+    <row r="741" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
       <c r="H741" s="9"/>
     </row>
-    <row r="742">
+    <row r="742" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
       <c r="H742" s="9"/>
     </row>
-    <row r="743">
+    <row r="743" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
       <c r="H743" s="9"/>
     </row>
-    <row r="744">
+    <row r="744" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
       <c r="H744" s="9"/>
     </row>
-    <row r="745">
+    <row r="745" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
       <c r="H745" s="9"/>
     </row>
-    <row r="746">
+    <row r="746" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
       <c r="H746" s="9"/>
     </row>
-    <row r="747">
+    <row r="747" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
       <c r="H747" s="9"/>
     </row>
-    <row r="748">
+    <row r="748" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
       <c r="H748" s="9"/>
     </row>
-    <row r="749">
+    <row r="749" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
       <c r="H749" s="9"/>
     </row>
-    <row r="750">
+    <row r="750" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
       <c r="H750" s="9"/>
     </row>
-    <row r="751">
+    <row r="751" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
       <c r="H751" s="9"/>
     </row>
-    <row r="752">
+    <row r="752" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
       <c r="H752" s="9"/>
     </row>
-    <row r="753">
+    <row r="753" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
       <c r="H753" s="9"/>
     </row>
-    <row r="754">
+    <row r="754" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
       <c r="H754" s="9"/>
     </row>
-    <row r="755">
+    <row r="755" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
       <c r="H755" s="9"/>
     </row>
-    <row r="756">
+    <row r="756" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
       <c r="H756" s="9"/>
     </row>
-    <row r="757">
+    <row r="757" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
       <c r="H757" s="9"/>
     </row>
-    <row r="758">
+    <row r="758" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
       <c r="H758" s="9"/>
     </row>
-    <row r="759">
+    <row r="759" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
       <c r="H759" s="9"/>
     </row>
-    <row r="760">
+    <row r="760" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
       <c r="H760" s="9"/>
     </row>
-    <row r="761">
+    <row r="761" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
       <c r="H761" s="9"/>
     </row>
-    <row r="762">
+    <row r="762" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
       <c r="H762" s="9"/>
     </row>
-    <row r="763">
+    <row r="763" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
       <c r="H763" s="9"/>
     </row>
-    <row r="764">
+    <row r="764" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
       <c r="H764" s="9"/>
     </row>
-    <row r="765">
+    <row r="765" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
       <c r="H765" s="9"/>
     </row>
-    <row r="766">
+    <row r="766" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
       <c r="H766" s="9"/>
     </row>
-    <row r="767">
+    <row r="767" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
       <c r="H767" s="9"/>
     </row>
-    <row r="768">
+    <row r="768" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
       <c r="H768" s="9"/>
     </row>
-    <row r="769">
+    <row r="769" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
       <c r="H769" s="9"/>
     </row>
-    <row r="770">
+    <row r="770" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
       <c r="H770" s="9"/>
     </row>
-    <row r="771">
+    <row r="771" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
       <c r="H771" s="9"/>
     </row>
-    <row r="772">
+    <row r="772" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
       <c r="H772" s="9"/>
     </row>
-    <row r="773">
+    <row r="773" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
       <c r="H773" s="9"/>
     </row>
-    <row r="774">
+    <row r="774" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
       <c r="H774" s="9"/>
     </row>
-    <row r="775">
+    <row r="775" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
       <c r="H775" s="9"/>
     </row>
-    <row r="776">
+    <row r="776" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
       <c r="H776" s="9"/>
     </row>
-    <row r="777">
+    <row r="777" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
       <c r="H777" s="9"/>
     </row>
-    <row r="778">
+    <row r="778" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
       <c r="H778" s="9"/>
     </row>
-    <row r="779">
+    <row r="779" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
       <c r="H779" s="9"/>
     </row>
-    <row r="780">
+    <row r="780" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
       <c r="H780" s="9"/>
     </row>
-    <row r="781">
+    <row r="781" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
       <c r="H781" s="9"/>
     </row>
-    <row r="782">
+    <row r="782" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
       <c r="H782" s="9"/>
     </row>
-    <row r="783">
+    <row r="783" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
       <c r="H783" s="9"/>
     </row>
-    <row r="784">
+    <row r="784" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
       <c r="H784" s="9"/>
     </row>
-    <row r="785">
+    <row r="785" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
       <c r="H785" s="9"/>
     </row>
-    <row r="786">
+    <row r="786" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
       <c r="H786" s="9"/>
     </row>
-    <row r="787">
+    <row r="787" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
       <c r="H787" s="9"/>
     </row>
-    <row r="788">
+    <row r="788" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
       <c r="H788" s="9"/>
     </row>
-    <row r="789">
+    <row r="789" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
       <c r="H789" s="9"/>
     </row>
-    <row r="790">
+    <row r="790" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
       <c r="H790" s="9"/>
     </row>
-    <row r="791">
+    <row r="791" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
       <c r="H791" s="9"/>
     </row>
-    <row r="792">
+    <row r="792" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
       <c r="H792" s="9"/>
     </row>
-    <row r="793">
+    <row r="793" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
       <c r="H793" s="9"/>
     </row>
-    <row r="794">
+    <row r="794" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
       <c r="H794" s="9"/>
     </row>
-    <row r="795">
+    <row r="795" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
       <c r="H795" s="9"/>
     </row>
-    <row r="796">
+    <row r="796" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
       <c r="H796" s="9"/>
     </row>
-    <row r="797">
+    <row r="797" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
       <c r="H797" s="9"/>
     </row>
-    <row r="798">
+    <row r="798" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
       <c r="H798" s="9"/>
     </row>
-    <row r="799">
+    <row r="799" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
       <c r="H799" s="9"/>
     </row>
-    <row r="800">
+    <row r="800" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
       <c r="H800" s="9"/>
     </row>
-    <row r="801">
+    <row r="801" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
       <c r="H801" s="9"/>
     </row>
-    <row r="802">
+    <row r="802" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
       <c r="H802" s="9"/>
     </row>
-    <row r="803">
+    <row r="803" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
       <c r="H803" s="9"/>
     </row>
-    <row r="804">
+    <row r="804" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
       <c r="H804" s="9"/>
     </row>
-    <row r="805">
+    <row r="805" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
       <c r="H805" s="9"/>
     </row>
-    <row r="806">
+    <row r="806" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
       <c r="H806" s="9"/>
     </row>
-    <row r="807">
+    <row r="807" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
       <c r="H807" s="9"/>
     </row>
-    <row r="808">
+    <row r="808" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
       <c r="H808" s="9"/>
     </row>
-    <row r="809">
+    <row r="809" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
       <c r="H809" s="9"/>
     </row>
-    <row r="810">
+    <row r="810" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
       <c r="H810" s="9"/>
     </row>
-    <row r="811">
+    <row r="811" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
       <c r="H811" s="9"/>
     </row>
-    <row r="812">
+    <row r="812" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
       <c r="H812" s="9"/>
     </row>
-    <row r="813">
+    <row r="813" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
       <c r="H813" s="9"/>
     </row>
-    <row r="814">
+    <row r="814" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
       <c r="H814" s="9"/>
     </row>
-    <row r="815">
+    <row r="815" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
       <c r="H815" s="9"/>
     </row>
-    <row r="816">
+    <row r="816" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
       <c r="H816" s="9"/>
     </row>
-    <row r="817">
+    <row r="817" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
       <c r="H817" s="9"/>
     </row>
-    <row r="818">
+    <row r="818" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
       <c r="H818" s="9"/>
     </row>
-    <row r="819">
+    <row r="819" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
       <c r="H819" s="9"/>
     </row>
-    <row r="820">
+    <row r="820" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
       <c r="H820" s="9"/>
     </row>
-    <row r="821">
+    <row r="821" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
       <c r="H821" s="9"/>
     </row>
-    <row r="822">
+    <row r="822" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
       <c r="H822" s="9"/>
     </row>
-    <row r="823">
+    <row r="823" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
       <c r="H823" s="9"/>
     </row>
-    <row r="824">
+    <row r="824" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
       <c r="H824" s="9"/>
     </row>
-    <row r="825">
+    <row r="825" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
       <c r="H825" s="9"/>
     </row>
-    <row r="826">
+    <row r="826" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
       <c r="H826" s="9"/>
     </row>
-    <row r="827">
+    <row r="827" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
       <c r="H827" s="9"/>
     </row>
-    <row r="828">
+    <row r="828" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
       <c r="H828" s="9"/>
     </row>
-    <row r="829">
+    <row r="829" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
       <c r="H829" s="9"/>
     </row>
-    <row r="830">
+    <row r="830" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
       <c r="H830" s="9"/>
     </row>
-    <row r="831">
+    <row r="831" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
       <c r="H831" s="9"/>
     </row>
-    <row r="832">
+    <row r="832" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
       <c r="H832" s="9"/>
     </row>
-    <row r="833">
+    <row r="833" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
       <c r="H833" s="9"/>
     </row>
-    <row r="834">
+    <row r="834" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
       <c r="H834" s="9"/>
     </row>
-    <row r="835">
+    <row r="835" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
       <c r="H835" s="9"/>
     </row>
-    <row r="836">
+    <row r="836" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
       <c r="H836" s="9"/>
     </row>
-    <row r="837">
+    <row r="837" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
       <c r="H837" s="9"/>
     </row>
-    <row r="838">
+    <row r="838" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
       <c r="H838" s="9"/>
     </row>
-    <row r="839">
+    <row r="839" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
       <c r="H839" s="9"/>
     </row>
-    <row r="840">
+    <row r="840" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
       <c r="H840" s="9"/>
     </row>
-    <row r="841">
+    <row r="841" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
       <c r="H841" s="9"/>
     </row>
-    <row r="842">
+    <row r="842" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
       <c r="H842" s="9"/>
     </row>
-    <row r="843">
+    <row r="843" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
       <c r="H843" s="9"/>
     </row>
-    <row r="844">
+    <row r="844" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
       <c r="H844" s="9"/>
     </row>
-    <row r="845">
+    <row r="845" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
       <c r="H845" s="9"/>
     </row>
-    <row r="846">
+    <row r="846" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
       <c r="H846" s="9"/>
     </row>
-    <row r="847">
+    <row r="847" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
       <c r="H847" s="9"/>
     </row>
-    <row r="848">
+    <row r="848" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
       <c r="H848" s="9"/>
     </row>
-    <row r="849">
+    <row r="849" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
       <c r="H849" s="9"/>
     </row>
-    <row r="850">
+    <row r="850" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
       <c r="H850" s="9"/>
     </row>
-    <row r="851">
+    <row r="851" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
       <c r="H851" s="9"/>
     </row>
-    <row r="852">
+    <row r="852" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
       <c r="H852" s="9"/>
     </row>
-    <row r="853">
+    <row r="853" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
       <c r="H853" s="9"/>
     </row>
-    <row r="854">
+    <row r="854" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
       <c r="H854" s="9"/>
     </row>
-    <row r="855">
+    <row r="855" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
       <c r="H855" s="9"/>
     </row>
-    <row r="856">
+    <row r="856" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
       <c r="H856" s="9"/>
     </row>
-    <row r="857">
+    <row r="857" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
       <c r="H857" s="9"/>
     </row>
-    <row r="858">
+    <row r="858" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
       <c r="H858" s="9"/>
     </row>
-    <row r="859">
+    <row r="859" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
       <c r="H859" s="9"/>
     </row>
-    <row r="860">
+    <row r="860" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
       <c r="H860" s="9"/>
     </row>
-    <row r="861">
+    <row r="861" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
       <c r="H861" s="9"/>
     </row>
-    <row r="862">
+    <row r="862" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
       <c r="H862" s="9"/>
     </row>
-    <row r="863">
+    <row r="863" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
       <c r="H863" s="9"/>
     </row>
-    <row r="864">
+    <row r="864" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
       <c r="H864" s="9"/>
     </row>
-    <row r="865">
+    <row r="865" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
       <c r="H865" s="9"/>
     </row>
-    <row r="866">
+    <row r="866" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
       <c r="H866" s="9"/>
     </row>
-    <row r="867">
+    <row r="867" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
       <c r="H867" s="9"/>
     </row>
-    <row r="868">
+    <row r="868" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
       <c r="H868" s="9"/>
     </row>
-    <row r="869">
+    <row r="869" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
       <c r="H869" s="9"/>
     </row>
-    <row r="870">
+    <row r="870" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
       <c r="H870" s="9"/>
     </row>
-    <row r="871">
+    <row r="871" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
       <c r="H871" s="9"/>
     </row>
-    <row r="872">
+    <row r="872" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
       <c r="H872" s="9"/>
     </row>
-    <row r="873">
+    <row r="873" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
       <c r="H873" s="9"/>
     </row>
-    <row r="874">
+    <row r="874" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
       <c r="H874" s="9"/>
     </row>
-    <row r="875">
+    <row r="875" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
       <c r="H875" s="9"/>
     </row>
-    <row r="876">
+    <row r="876" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
       <c r="H876" s="9"/>
     </row>
-    <row r="877">
+    <row r="877" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
       <c r="H877" s="9"/>
     </row>
-    <row r="878">
+    <row r="878" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
       <c r="H878" s="9"/>
     </row>
-    <row r="879">
+    <row r="879" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
       <c r="H879" s="9"/>
     </row>
-    <row r="880">
+    <row r="880" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
       <c r="H880" s="9"/>
     </row>
-    <row r="881">
+    <row r="881" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
       <c r="H881" s="9"/>
     </row>
-    <row r="882">
+    <row r="882" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
       <c r="H882" s="9"/>
     </row>
-    <row r="883">
+    <row r="883" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
       <c r="H883" s="9"/>
     </row>
-    <row r="884">
+    <row r="884" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
       <c r="H884" s="9"/>
     </row>
-    <row r="885">
+    <row r="885" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
       <c r="H885" s="9"/>
     </row>
-    <row r="886">
+    <row r="886" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
       <c r="H886" s="9"/>
     </row>
-    <row r="887">
+    <row r="887" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
       <c r="H887" s="9"/>
     </row>
-    <row r="888">
+    <row r="888" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
       <c r="H888" s="9"/>
     </row>
-    <row r="889">
+    <row r="889" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
       <c r="H889" s="9"/>
     </row>
-    <row r="890">
+    <row r="890" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
       <c r="H890" s="9"/>
     </row>
-    <row r="891">
+    <row r="891" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
       <c r="H891" s="9"/>
     </row>
-    <row r="892">
+    <row r="892" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
       <c r="H892" s="9"/>
     </row>
-    <row r="893">
+    <row r="893" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
       <c r="H893" s="9"/>
     </row>
-    <row r="894">
+    <row r="894" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
       <c r="H894" s="9"/>
     </row>
-    <row r="895">
+    <row r="895" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
       <c r="H895" s="9"/>
     </row>
-    <row r="896">
+    <row r="896" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
       <c r="H896" s="9"/>
     </row>
-    <row r="897">
+    <row r="897" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
       <c r="H897" s="9"/>
     </row>
-    <row r="898">
+    <row r="898" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
       <c r="H898" s="9"/>
     </row>
-    <row r="899">
+    <row r="899" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
       <c r="H899" s="9"/>
     </row>
-    <row r="900">
+    <row r="900" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
       <c r="H900" s="9"/>
     </row>
-    <row r="901">
+    <row r="901" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
       <c r="H901" s="9"/>
     </row>
-    <row r="902">
+    <row r="902" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
       <c r="H902" s="9"/>
     </row>
-    <row r="903">
+    <row r="903" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
       <c r="H903" s="9"/>
     </row>
-    <row r="904">
+    <row r="904" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
       <c r="H904" s="9"/>
     </row>
-    <row r="905">
+    <row r="905" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
       <c r="H905" s="9"/>
     </row>
-    <row r="906">
+    <row r="906" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
       <c r="H906" s="9"/>
     </row>
-    <row r="907">
+    <row r="907" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
       <c r="H907" s="9"/>
     </row>
-    <row r="908">
+    <row r="908" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
       <c r="H908" s="9"/>
     </row>
-    <row r="909">
+    <row r="909" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
       <c r="H909" s="9"/>
     </row>
-    <row r="910">
+    <row r="910" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
       <c r="H910" s="9"/>
     </row>
-    <row r="911">
+    <row r="911" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
       <c r="H911" s="9"/>
     </row>
-    <row r="912">
+    <row r="912" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
       <c r="H912" s="9"/>
     </row>
-    <row r="913">
+    <row r="913" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
       <c r="H913" s="9"/>
     </row>
-    <row r="914">
+    <row r="914" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
       <c r="H914" s="9"/>
     </row>
-    <row r="915">
+    <row r="915" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
       <c r="H915" s="9"/>
     </row>
-    <row r="916">
+    <row r="916" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
       <c r="H916" s="9"/>
     </row>
-    <row r="917">
+    <row r="917" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
       <c r="H917" s="9"/>
     </row>
-    <row r="918">
+    <row r="918" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
       <c r="H918" s="9"/>
     </row>
-    <row r="919">
+    <row r="919" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
       <c r="H919" s="9"/>
     </row>
-    <row r="920">
+    <row r="920" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
       <c r="H920" s="9"/>
     </row>
-    <row r="921">
+    <row r="921" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
       <c r="H921" s="9"/>
     </row>
-    <row r="922">
+    <row r="922" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
       <c r="H922" s="9"/>
     </row>
-    <row r="923">
+    <row r="923" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
       <c r="H923" s="9"/>
     </row>
-    <row r="924">
+    <row r="924" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
       <c r="H924" s="9"/>
     </row>
-    <row r="925">
+    <row r="925" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
       <c r="H925" s="9"/>
     </row>
-    <row r="926">
+    <row r="926" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
       <c r="H926" s="9"/>
     </row>
-    <row r="927">
+    <row r="927" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
       <c r="H927" s="9"/>
     </row>
-    <row r="928">
+    <row r="928" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
       <c r="H928" s="9"/>
     </row>
-    <row r="929">
+    <row r="929" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
       <c r="H929" s="9"/>
     </row>
-    <row r="930">
+    <row r="930" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
       <c r="H930" s="9"/>
     </row>
-    <row r="931">
+    <row r="931" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
       <c r="H931" s="9"/>
     </row>
-    <row r="932">
+    <row r="932" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
       <c r="H932" s="9"/>
     </row>
-    <row r="933">
+    <row r="933" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
       <c r="H933" s="9"/>
     </row>
-    <row r="934">
+    <row r="934" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
       <c r="H934" s="9"/>
     </row>
-    <row r="935">
+    <row r="935" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
       <c r="H935" s="9"/>
     </row>
-    <row r="936">
+    <row r="936" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
       <c r="H936" s="9"/>
     </row>
-    <row r="937">
+    <row r="937" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
       <c r="H937" s="9"/>
     </row>
-    <row r="938">
+    <row r="938" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
       <c r="H938" s="9"/>
     </row>
-    <row r="939">
+    <row r="939" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
       <c r="H939" s="9"/>
     </row>
-    <row r="940">
+    <row r="940" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
       <c r="H940" s="9"/>
     </row>
-    <row r="941">
+    <row r="941" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
       <c r="H941" s="9"/>
     </row>
-    <row r="942">
+    <row r="942" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
       <c r="H942" s="9"/>
     </row>
-    <row r="943">
+    <row r="943" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
       <c r="H943" s="9"/>
     </row>
-    <row r="944">
+    <row r="944" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
       <c r="H944" s="9"/>
     </row>
-    <row r="945">
+    <row r="945" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
       <c r="H945" s="9"/>
     </row>
-    <row r="946">
+    <row r="946" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
       <c r="H946" s="9"/>
     </row>
-    <row r="947">
+    <row r="947" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
       <c r="H947" s="9"/>
     </row>
-    <row r="948">
+    <row r="948" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
       <c r="H948" s="9"/>
     </row>
-    <row r="949">
+    <row r="949" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
       <c r="H949" s="9"/>
     </row>
-    <row r="950">
+    <row r="950" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
       <c r="H950" s="9"/>
     </row>
-    <row r="951">
+    <row r="951" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
       <c r="H951" s="9"/>
     </row>
-    <row r="952">
+    <row r="952" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
       <c r="H952" s="9"/>
     </row>
-    <row r="953">
+    <row r="953" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
       <c r="H953" s="9"/>
     </row>
-    <row r="954">
+    <row r="954" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
       <c r="H954" s="9"/>
     </row>
-    <row r="955">
+    <row r="955" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
       <c r="H955" s="9"/>
     </row>
-    <row r="956">
+    <row r="956" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
       <c r="H956" s="9"/>
     </row>
-    <row r="957">
+    <row r="957" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
       <c r="H957" s="9"/>
     </row>
-    <row r="958">
+    <row r="958" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
       <c r="H958" s="9"/>
     </row>
-    <row r="959">
+    <row r="959" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
       <c r="H959" s="9"/>
     </row>
-    <row r="960">
+    <row r="960" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
       <c r="H960" s="9"/>
     </row>
-    <row r="961">
+    <row r="961" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
       <c r="H961" s="9"/>
     </row>
-    <row r="962">
+    <row r="962" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
       <c r="H962" s="9"/>
     </row>
-    <row r="963">
+    <row r="963" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
       <c r="H963" s="9"/>
     </row>
-    <row r="964">
+    <row r="964" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
       <c r="H964" s="9"/>
     </row>
-    <row r="965">
+    <row r="965" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
       <c r="H965" s="9"/>
     </row>
-    <row r="966">
+    <row r="966" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
       <c r="H966" s="9"/>
     </row>
-    <row r="967">
+    <row r="967" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
       <c r="H967" s="9"/>
     </row>
-    <row r="968">
+    <row r="968" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
       <c r="H968" s="9"/>
     </row>
-    <row r="969">
+    <row r="969" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
       <c r="H969" s="9"/>
     </row>
-    <row r="970">
+    <row r="970" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
       <c r="H970" s="9"/>
     </row>
-    <row r="971">
+    <row r="971" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
       <c r="H971" s="9"/>
     </row>
-    <row r="972">
+    <row r="972" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
       <c r="H972" s="9"/>
     </row>
-    <row r="973">
+    <row r="973" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
       <c r="H973" s="9"/>
     </row>
-    <row r="974">
+    <row r="974" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
       <c r="H974" s="9"/>
     </row>
-    <row r="975">
+    <row r="975" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
       <c r="H975" s="9"/>
     </row>
-    <row r="976">
+    <row r="976" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
       <c r="H976" s="9"/>
     </row>
-    <row r="977">
+    <row r="977" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
       <c r="H977" s="9"/>
     </row>
-    <row r="978">
+    <row r="978" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
       <c r="H978" s="9"/>
     </row>
-    <row r="979">
+    <row r="979" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
       <c r="H979" s="9"/>
     </row>
-    <row r="980">
+    <row r="980" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
       <c r="H980" s="9"/>
     </row>
-    <row r="981">
+    <row r="981" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
       <c r="H981" s="9"/>
     </row>
-    <row r="982">
+    <row r="982" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
       <c r="H982" s="9"/>
     </row>
-    <row r="983">
+    <row r="983" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
       <c r="H983" s="9"/>
     </row>
-    <row r="984">
+    <row r="984" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
       <c r="H984" s="9"/>
     </row>
-    <row r="985">
+    <row r="985" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
       <c r="H985" s="9"/>
     </row>
-    <row r="986">
+    <row r="986" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
       <c r="H986" s="9"/>
     </row>
-    <row r="987">
+    <row r="987" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
       <c r="H987" s="9"/>
     </row>
-    <row r="988">
+    <row r="988" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
       <c r="H988" s="9"/>
     </row>
-    <row r="989">
+    <row r="989" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
       <c r="H989" s="9"/>
     </row>
-    <row r="990">
+    <row r="990" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
       <c r="H990" s="9"/>
     </row>
-    <row r="991">
+    <row r="991" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
       <c r="H991" s="9"/>
     </row>
-    <row r="992">
+    <row r="992" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
       <c r="H992" s="9"/>
     </row>
-    <row r="993">
+    <row r="993" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
       <c r="H993" s="9"/>
     </row>
-    <row r="994">
+    <row r="994" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
       <c r="H994" s="9"/>
     </row>
-    <row r="995">
+    <row r="995" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
       <c r="H995" s="9"/>
     </row>
-    <row r="996">
+    <row r="996" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
       <c r="H996" s="9"/>
     </row>
-    <row r="997">
+    <row r="997" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
       <c r="H997" s="9"/>
     </row>
-    <row r="998">
+    <row r="998" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
       <c r="H998" s="9"/>
     </row>
-    <row r="999">
+    <row r="999" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
       <c r="H999" s="9"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
       <c r="H1000" s="9"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
       <c r="H1001" s="9"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
       <c r="H1002" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>